--- a/app/parametros.xlsx
+++ b/app/parametros.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rserdan\Desktop\Desarrollo Cambiaria\AppCambiaria\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilde\OneDrive\Escritorio\New folder\AppCambiaria\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3071F78-AAE8-4F11-B148-32C66FF68291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10950" activeTab="2"/>
+    <workbookView xWindow="8352" yWindow="1548" windowWidth="12516" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clasificador" sheetId="1" r:id="rId1"/>
     <sheet name="movimientos" sheetId="2" r:id="rId2"/>
     <sheet name="palabras" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -859,9 +860,6 @@
     <t>codMov</t>
   </si>
   <si>
-    <t>Concepto</t>
-  </si>
-  <si>
     <t>Mayor2</t>
   </si>
   <si>
@@ -1076,12 +1074,15 @@
   </si>
   <si>
     <t>LA PRIMERA</t>
+  </si>
+  <si>
+    <t>CONCEPTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1422,19 +1423,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="8" width="41.28515625" customWidth="1"/>
+    <col min="7" max="8" width="41.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -1503,7 +1504,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -1572,7 +1573,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -1595,7 +1596,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>7</v>
       </c>
@@ -1756,7 +1757,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>7</v>
       </c>
@@ -1779,7 +1780,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>7</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -1848,7 +1849,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>7</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>7</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>7</v>
       </c>
@@ -1917,7 +1918,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>7</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>7</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>7</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>7</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>7</v>
       </c>
@@ -2032,7 +2033,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>7</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>7</v>
       </c>
@@ -2078,7 +2079,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>7</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>7</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>7</v>
       </c>
@@ -2147,7 +2148,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>7</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>7</v>
       </c>
@@ -2193,7 +2194,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>7</v>
       </c>
@@ -2216,7 +2217,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>7</v>
       </c>
@@ -2239,7 +2240,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>7</v>
       </c>
@@ -2262,7 +2263,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>90</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>90</v>
       </c>
@@ -2308,7 +2309,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>90</v>
       </c>
@@ -2331,7 +2332,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>90</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>90</v>
       </c>
@@ -2377,7 +2378,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>90</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>90</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>90</v>
       </c>
@@ -2446,7 +2447,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>90</v>
       </c>
@@ -2469,7 +2470,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>90</v>
       </c>
@@ -2492,7 +2493,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>90</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>90</v>
       </c>
@@ -2538,7 +2539,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>90</v>
       </c>
@@ -2561,7 +2562,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>90</v>
       </c>
@@ -2584,7 +2585,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>90</v>
       </c>
@@ -2607,7 +2608,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>90</v>
       </c>
@@ -2630,7 +2631,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>90</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>90</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>90</v>
       </c>
@@ -2699,7 +2700,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>90</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>90</v>
       </c>
@@ -2745,7 +2746,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>90</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>90</v>
       </c>
@@ -2791,7 +2792,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>90</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>90</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>90</v>
       </c>
@@ -2860,7 +2861,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>90</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>90</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>90</v>
       </c>
@@ -2929,7 +2930,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>90</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>90</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>90</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>90</v>
       </c>
@@ -3021,7 +3022,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>90</v>
       </c>
@@ -3050,40 +3051,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" t="s">
         <v>277</v>
-      </c>
-      <c r="B1" t="s">
-        <v>278</v>
       </c>
       <c r="C1" t="s">
         <v>276</v>
       </c>
       <c r="D1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>271</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>271</v>
       </c>
@@ -3123,7 +3124,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>271</v>
       </c>
@@ -3137,7 +3138,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>272</v>
       </c>
@@ -3151,7 +3152,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>271</v>
       </c>
@@ -3171,7 +3172,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>271</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>YPFB Op. Financieras</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>271</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>UTO Postgrado</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>271</v>
       </c>
@@ -3227,7 +3228,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>272</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>271</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>Dir. Gral. Aeronáutica Civil</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>271</v>
       </c>
@@ -3276,7 +3277,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>272</v>
       </c>
@@ -3290,7 +3291,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>271</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>Dir. Gral. Aeronáutica Civil</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>271</v>
       </c>
@@ -3332,7 +3333,7 @@
         <v>Aasana</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>271</v>
       </c>
@@ -3353,7 +3354,7 @@
         <v>ADSIB</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>271</v>
       </c>
@@ -3367,7 +3368,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>272</v>
       </c>
@@ -3381,7 +3382,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>271</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>Banco Nacional</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>271</v>
       </c>
@@ -3422,7 +3423,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>271</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>271</v>
       </c>
@@ -3462,7 +3463,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>271</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>271</v>
       </c>
@@ -3502,7 +3503,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>271</v>
       </c>
@@ -3522,7 +3523,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>271</v>
       </c>
@@ -3542,7 +3543,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>271</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>271</v>
       </c>
@@ -3582,7 +3583,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>271</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>271</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>271</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>271</v>
       </c>
@@ -3662,7 +3663,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>272</v>
       </c>
@@ -3682,7 +3683,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>272</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>272</v>
       </c>
@@ -3722,7 +3723,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>272</v>
       </c>
@@ -3742,7 +3743,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>272</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>272</v>
       </c>
@@ -3782,7 +3783,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>272</v>
       </c>
@@ -3802,7 +3803,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>272</v>
       </c>
@@ -3822,7 +3823,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>272</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>272</v>
       </c>
@@ -3862,7 +3863,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>272</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>272</v>
       </c>
@@ -3902,7 +3903,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>272</v>
       </c>
@@ -3922,7 +3923,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>272</v>
       </c>
@@ -3942,7 +3943,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>272</v>
       </c>
@@ -3963,7 +3964,7 @@
         <v>Encaje Legal</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>272</v>
       </c>
@@ -3980,7 +3981,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>272</v>
       </c>
@@ -3997,7 +3998,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>272</v>
       </c>
@@ -4008,13 +4009,13 @@
         <v>7329</v>
       </c>
       <c r="D50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E50" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>271</v>
       </c>
@@ -4031,7 +4032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>271</v>
       </c>
@@ -4048,7 +4049,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>271</v>
       </c>
@@ -4069,7 +4070,7 @@
         <v>APS MMMYA</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>271</v>
       </c>
@@ -4086,7 +4087,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>271</v>
       </c>
@@ -4103,7 +4104,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>271</v>
       </c>
@@ -4120,7 +4121,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>272</v>
       </c>
@@ -4137,7 +4138,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>272</v>
       </c>
@@ -4154,7 +4155,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>271</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>Valoración de Titulos RIN</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>272</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>Valoración de Titulos RIN</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>271</v>
       </c>
@@ -4217,7 +4218,7 @@
         <v>Intereses Portafolio Euro</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>271</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>Intereses Overnight</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>272</v>
       </c>
@@ -4255,7 +4256,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>272</v>
       </c>
@@ -4272,7 +4273,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>272</v>
       </c>
@@ -4283,12 +4284,12 @@
         <v>6818</v>
       </c>
       <c r="D65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E65"/>
       <c r="F65"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>272</v>
       </c>
@@ -4308,7 +4309,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>271</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>271</v>
       </c>
@@ -4345,7 +4346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>272</v>
       </c>
@@ -4371,164 +4372,164 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -4536,391 +4537,391 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B21" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B23" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B24" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B25" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B26" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B28" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B32" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B39" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>241</v>
       </c>
       <c r="B48" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>242</v>
       </c>
       <c r="B49" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B50" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>243</v>
       </c>
       <c r="B51" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>244</v>
       </c>
       <c r="B52" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B53" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>245</v>
       </c>
       <c r="B54" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>246</v>
       </c>
       <c r="B55" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>247</v>
       </c>
       <c r="B56" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>248</v>
       </c>
       <c r="B57" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>249</v>
       </c>
       <c r="B58" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>250</v>
       </c>
       <c r="B59" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>251</v>
       </c>
       <c r="B60" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>252</v>
       </c>
       <c r="B61" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>253</v>
       </c>
       <c r="B62" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>254</v>
       </c>
       <c r="B63" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B65" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>238</v>
       </c>
@@ -4928,7 +4929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>240</v>
       </c>
@@ -4936,7 +4937,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>263</v>
       </c>
@@ -4944,7 +4945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>270</v>
       </c>
@@ -4952,7 +4953,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>255</v>
       </c>
@@ -4960,7 +4961,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>257</v>
       </c>
@@ -4968,7 +4969,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>260</v>
       </c>
@@ -4976,108 +4977,108 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B75" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>337</v>
+      </c>
+      <c r="B76" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B76" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="B77" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>339</v>
-      </c>
-      <c r="B77" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>340</v>
       </c>
       <c r="B78" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B79" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B80" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B81" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B82" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>344</v>
+      </c>
+      <c r="B83" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>345</v>
       </c>
-      <c r="B83" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="B84" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
         <v>346</v>
       </c>
-      <c r="B84" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="B85" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>347</v>
       </c>
-      <c r="B85" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>348</v>
       </c>
-      <c r="B86" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>349</v>
-      </c>
       <c r="B87" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>

--- a/app/parametros.xlsx
+++ b/app/parametros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilde\OneDrive\Escritorio\New folder\AppCambiaria\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3071F78-AAE8-4F11-B148-32C66FF68291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BC45CF-432E-4DF4-82A8-4FD852DBBA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8352" yWindow="1548" windowWidth="12516" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clasificador" sheetId="1" r:id="rId1"/>
@@ -1076,14 +1076,14 @@
     <t>LA PRIMERA</t>
   </si>
   <si>
-    <t>CONCEPTO</t>
+    <t>Concepto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1117,6 +1117,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1138,12 +1146,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3085,7 +3094,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>271</v>
       </c>
       <c r="B2">
@@ -4368,6 +4377,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
